--- a/DOCUMENTS/BOM.xlsx
+++ b/DOCUMENTS/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\ESP32 - Little-Sun\ESP32-synth1\DOCUMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA8BD39-AD91-4091-9155-AA1898638710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95261F0-EE17-48A3-A0D7-1FE71F0D9A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{5A0785A7-7F73-43D4-B8C6-E93BFAFE0763}"/>
   </bookViews>
@@ -542,9 +542,6 @@
     <t>652-PEC12R-4025F-S24</t>
   </si>
   <si>
-    <t>TLV62565DBVR</t>
-  </si>
-  <si>
     <t>Pot, vertical, Linear, 1B tapper, 20%, D Flatted, 25 mm (L), 6mm (⌀), 1 gang, 1 turn, no detent,</t>
   </si>
   <si>
@@ -590,12 +587,6 @@
     <t>$5.1651</t>
   </si>
   <si>
-    <t>C87122</t>
-  </si>
-  <si>
-    <t>Step down sitching regulator 3.3v fixed</t>
-  </si>
-  <si>
     <t>C2927293</t>
   </si>
   <si>
@@ -615,6 +606,15 @@
   </si>
   <si>
     <t>ESP32 SYNTH 1 - BOM</t>
+  </si>
+  <si>
+    <t>TLV62569DBVR</t>
+  </si>
+  <si>
+    <t>C141836</t>
+  </si>
+  <si>
+    <t>Step down switching regulator</t>
   </si>
 </sst>
 </file>
@@ -999,11 +999,17 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,12 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1337,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6461F711-53C3-4030-BDA2-5EB2A55B872E}">
-  <dimension ref="A1:X80"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1358,14 +1358,14 @@
     <col min="11" max="11" width="12.26953125" style="15" customWidth="1"/>
     <col min="12" max="12" width="17" style="15" customWidth="1"/>
     <col min="13" max="13" width="15.1796875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="15" hidden="1"/>
-    <col min="15" max="24" width="0" style="15" hidden="1"/>
+    <col min="14" max="14" width="8.7265625" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="24" width="0" style="15" hidden="1" customWidth="1"/>
     <col min="25" max="16384" width="8.7265625" style="15" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="64" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>193</v>
+    <row r="1" spans="1:24" s="60" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -1409,53 +1409,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-    </row>
-    <row r="4" spans="1:24" s="58" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="57" t="s">
+    <row r="3" spans="1:24" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+    </row>
+    <row r="4" spans="1:24" s="57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:24" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="B5" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>31</v>
@@ -1496,7 +1496,7 @@
     <row r="6" spans="1:24" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>31</v>
@@ -1537,7 +1537,7 @@
     <row r="7" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>25</v>
@@ -1568,7 +1568,7 @@
     <row r="8" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>25</v>
@@ -1599,7 +1599,7 @@
     <row r="9" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>25</v>
@@ -1632,7 +1632,7 @@
     <row r="10" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>25</v>
@@ -1663,7 +1663,7 @@
     <row r="11" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>25</v>
@@ -1692,7 +1692,7 @@
     <row r="12" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>25</v>
@@ -1723,7 +1723,7 @@
     <row r="13" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>25</v>
@@ -1754,7 +1754,7 @@
     <row r="14" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>25</v>
@@ -1785,7 +1785,7 @@
     <row r="15" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>25</v>
@@ -1811,27 +1811,27 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:24" s="58" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:24" s="57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="1:24" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>25</v>
@@ -1873,7 +1873,7 @@
     <row r="18" spans="1:24" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>25</v>
@@ -1904,7 +1904,7 @@
     <row r="19" spans="1:24" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>25</v>
@@ -1946,7 +1946,7 @@
     <row r="20" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>25</v>
@@ -1977,7 +1977,7 @@
     <row r="21" spans="1:24" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>25</v>
@@ -2008,7 +2008,7 @@
     <row r="22" spans="1:24" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>74</v>
@@ -2049,27 +2049,27 @@
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
     </row>
-    <row r="23" spans="1:24" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:24" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>87</v>
@@ -2099,27 +2099,27 @@
       </c>
       <c r="M24" s="16"/>
     </row>
-    <row r="25" spans="1:24" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
+    <row r="25" spans="1:24" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="B26" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>25</v>
@@ -2152,7 +2152,7 @@
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
       <c r="B27" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>25</v>
@@ -2182,22 +2182,22 @@
       </c>
       <c r="M27" s="33"/>
     </row>
-    <row r="28" spans="1:24" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
+    <row r="28" spans="1:24" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
@@ -2243,7 +2243,7 @@
         <v>106</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K30" s="33">
         <v>1907</v>
@@ -2276,7 +2276,7 @@
         <v>111</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K31" s="31">
         <v>1085</v>
@@ -2375,27 +2375,27 @@
       </c>
       <c r="M34" s="33"/>
     </row>
-    <row r="35" spans="1:24" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="57" t="s">
+    <row r="35" spans="1:24" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
     </row>
     <row r="36" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>98</v>
@@ -2405,18 +2405,18 @@
       <c r="F36" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>169</v>
+      <c r="G36" s="51" t="s">
+        <v>191</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J36" s="16"/>
       <c r="K36" s="2">
-        <v>44222</v>
+        <v>29173</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>19</v>
@@ -2575,22 +2575,22 @@
       </c>
       <c r="M41" s="22"/>
     </row>
-    <row r="42" spans="1:24" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="57" t="s">
+    <row r="42" spans="1:24" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
@@ -2655,7 +2655,7 @@
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>156</v>
@@ -2663,7 +2663,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>153</v>
@@ -2672,7 +2672,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="51" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12">
@@ -2686,7 +2686,7 @@
     <row r="46" spans="1:24" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="37"/>
       <c r="B46" s="37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>156</v>
@@ -2694,7 +2694,7 @@
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>154</v>
@@ -2703,7 +2703,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="52" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J46" s="37"/>
       <c r="K46" s="37">
@@ -2759,7 +2759,7 @@
     <row r="48" spans="1:24" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="22"/>
       <c r="B48" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>160</v>
@@ -2871,6 +2871,12 @@
     <row r="78" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="79" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="80" x14ac:dyDescent="0.3"/>
+    <row r="81" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="82" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="83" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="84" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="85" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="86" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A35:M35"/>
@@ -2884,5 +2890,6 @@
     <mergeCell ref="A28:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>